--- a/97_enquete/9.xlsx
+++ b/97_enquete/9.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
@@ -27,33 +27,6 @@
     <t>Heliz</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
     <t>Mestrado PPE-COPPE</t>
   </si>
   <si>
@@ -66,17 +39,44 @@
     <t>Não</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Alunos do PPGE</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +106,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,9 +136,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -468,41 +478,52 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -510,31 +531,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
